--- a/SuRGE_Sharepoint/data/ADA/CH4_136_Arrow Head Lake/dataSheets/surgeData136.xlsx
+++ b/SuRGE_Sharepoint/data/ADA/CH4_136_Arrow Head Lake/dataSheets/surgeData136.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/ADA/CH4_136_Arrow Head Lake/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/ADA/CH4_136_Arrow Head Lake/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1442" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C323225F-1652-4A1C-A177-884A1B6E3B7E}"/>
+  <xr:revisionPtr revIDLastSave="1443" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34EB6ADC-4D3E-495A-AE82-A7C30136E11F}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="2532" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="34560" windowHeight="13560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Database">data!$B$2:$BP$47</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentManualCount="4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1444,9 +1444,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1484,7 +1484,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1590,7 +1590,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1732,7 +1732,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1742,9 +1742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F22" sqref="F22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BT5" sqref="BT5:BV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2235,15 +2235,6 @@
       <c r="BE3">
         <v>1.3</v>
       </c>
-      <c r="BT3" t="s">
-        <v>208</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>209</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>210</v>
-      </c>
       <c r="BW3">
         <v>2.09</v>
       </c>
@@ -2433,6 +2424,15 @@
       </c>
       <c r="BE5">
         <v>12.8</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>208</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>209</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:78" x14ac:dyDescent="0.3">
@@ -4320,7 +4320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081A6BD0-DB1A-406D-A526-8D337C57DAFE}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -4695,15 +4695,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
@@ -4745,7 +4736,21 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5216,20 +5221,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5243,7 +5235,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB55F047-E11F-4744-A5DB-F58BFBF70F9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5264,12 +5272,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>